--- a/data/output/FV2504_FV2410/UTILMD/55007.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55007.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="235">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="235">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -853,6 +853,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U100" totalsRowShown="0">
+  <autoFilter ref="A1:U100"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1142,7 +1172,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5553,5 +5586,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55007.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55007.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="332">
   <si>
     <t>#</t>
   </si>
@@ -2135,48 +2135,46 @@
       <c r="V12" s="9"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="M13" s="5" t="s">
+      <c r="K13" s="2"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5" t="s">
+      <c r="N13" s="2"/>
+      <c r="O13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5" t="s">
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5" t="s">
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="V13" s="5"/>
+      <c r="V13" s="2"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="5" t="s">
@@ -2206,9 +2204,7 @@
         <v>181</v>
       </c>
       <c r="K14" s="5"/>
-      <c r="L14" s="7" t="s">
-        <v>196</v>
-      </c>
+      <c r="L14" s="4"/>
       <c r="M14" s="5" t="s">
         <v>24</v>
       </c>
@@ -2262,9 +2258,7 @@
       <c r="K15" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>196</v>
-      </c>
+      <c r="L15" s="4"/>
       <c r="M15" s="5" t="s">
         <v>24</v>
       </c>
@@ -2318,9 +2312,7 @@
         <v>181</v>
       </c>
       <c r="K16" s="5"/>
-      <c r="L16" s="7" t="s">
-        <v>196</v>
-      </c>
+      <c r="L16" s="4"/>
       <c r="M16" s="5" t="s">
         <v>24</v>
       </c>
@@ -2347,44 +2339,42 @@
       <c r="V16" s="5"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="M17" s="5" t="s">
+      <c r="K17" s="2"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5" t="s">
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="V17" s="5"/>
+      <c r="V17" s="2"/>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="5" t="s">
@@ -2410,9 +2400,7 @@
         <v>180</v>
       </c>
       <c r="K18" s="5"/>
-      <c r="L18" s="7" t="s">
-        <v>196</v>
-      </c>
+      <c r="L18" s="4"/>
       <c r="M18" s="5" t="s">
         <v>25</v>
       </c>
@@ -2464,9 +2452,7 @@
         <v>181</v>
       </c>
       <c r="K19" s="5"/>
-      <c r="L19" s="7" t="s">
-        <v>196</v>
-      </c>
+      <c r="L19" s="4"/>
       <c r="M19" s="5" t="s">
         <v>25</v>
       </c>
@@ -2522,9 +2508,7 @@
         <v>181</v>
       </c>
       <c r="K20" s="5"/>
-      <c r="L20" s="7" t="s">
-        <v>196</v>
-      </c>
+      <c r="L20" s="4"/>
       <c r="M20" s="5" t="s">
         <v>25</v>
       </c>
@@ -2580,9 +2564,7 @@
         <v>181</v>
       </c>
       <c r="K21" s="5"/>
-      <c r="L21" s="7" t="s">
-        <v>196</v>
-      </c>
+      <c r="L21" s="4"/>
       <c r="M21" s="5" t="s">
         <v>25</v>
       </c>
@@ -2638,9 +2620,7 @@
         <v>181</v>
       </c>
       <c r="K22" s="5"/>
-      <c r="L22" s="7" t="s">
-        <v>196</v>
-      </c>
+      <c r="L22" s="4"/>
       <c r="M22" s="5" t="s">
         <v>25</v>
       </c>
@@ -2667,44 +2647,42 @@
       <c r="V22" s="5"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="M23" s="5" t="s">
+      <c r="K23" s="2"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="N23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5" t="s">
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="V23" s="5"/>
+      <c r="V23" s="2"/>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="5" t="s">
@@ -2730,9 +2708,7 @@
         <v>180</v>
       </c>
       <c r="K24" s="5"/>
-      <c r="L24" s="7" t="s">
-        <v>196</v>
-      </c>
+      <c r="L24" s="4"/>
       <c r="M24" s="5" t="s">
         <v>26</v>
       </c>
@@ -2784,9 +2760,7 @@
         <v>181</v>
       </c>
       <c r="K25" s="5"/>
-      <c r="L25" s="7" t="s">
-        <v>196</v>
-      </c>
+      <c r="L25" s="4"/>
       <c r="M25" s="5" t="s">
         <v>26</v>
       </c>
@@ -2842,9 +2816,7 @@
         <v>181</v>
       </c>
       <c r="K26" s="5"/>
-      <c r="L26" s="7" t="s">
-        <v>196</v>
-      </c>
+      <c r="L26" s="4"/>
       <c r="M26" s="5" t="s">
         <v>26</v>
       </c>
@@ -2871,52 +2843,50 @@
       <c r="V26" s="5"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5" t="s">
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="M27" s="5" t="s">
+      <c r="K27" s="2"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O27" s="5" t="s">
+      <c r="O27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5" t="s">
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5" t="s">
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="V27" s="5"/>
+      <c r="V27" s="2"/>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="5" t="s">
@@ -2948,9 +2918,7 @@
       <c r="K28" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="L28" s="7" t="s">
-        <v>196</v>
-      </c>
+      <c r="L28" s="4"/>
       <c r="M28" s="5" t="s">
         <v>27</v>
       </c>
@@ -3008,9 +2976,7 @@
         <v>185</v>
       </c>
       <c r="K29" s="5"/>
-      <c r="L29" s="7" t="s">
-        <v>196</v>
-      </c>
+      <c r="L29" s="4"/>
       <c r="M29" s="5" t="s">
         <v>27</v>
       </c>
@@ -3066,9 +3032,7 @@
         <v>185</v>
       </c>
       <c r="K30" s="5"/>
-      <c r="L30" s="7" t="s">
-        <v>196</v>
-      </c>
+      <c r="L30" s="4"/>
       <c r="M30" s="5" t="s">
         <v>27</v>
       </c>
@@ -3122,9 +3086,7 @@
         <v>185</v>
       </c>
       <c r="K31" s="5"/>
-      <c r="L31" s="7" t="s">
-        <v>196</v>
-      </c>
+      <c r="L31" s="4"/>
       <c r="M31" s="5" t="s">
         <v>27</v>
       </c>
@@ -3178,9 +3140,7 @@
         <v>185</v>
       </c>
       <c r="K32" s="5"/>
-      <c r="L32" s="7" t="s">
-        <v>196</v>
-      </c>
+      <c r="L32" s="4"/>
       <c r="M32" s="5" t="s">
         <v>27</v>
       </c>
@@ -3234,9 +3194,7 @@
         <v>185</v>
       </c>
       <c r="K33" s="5"/>
-      <c r="L33" s="7" t="s">
-        <v>196</v>
-      </c>
+      <c r="L33" s="4"/>
       <c r="M33" s="5" t="s">
         <v>27</v>
       </c>
@@ -3263,44 +3221,42 @@
       <c r="V33" s="5"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5" t="s">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K34" s="5"/>
-      <c r="L34" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="M34" s="5" t="s">
+      <c r="K34" s="2"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N34" s="5" t="s">
+      <c r="N34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5" t="s">
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="V34" s="5"/>
+      <c r="V34" s="2"/>
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="5" t="s">
@@ -3326,9 +3282,7 @@
         <v>180</v>
       </c>
       <c r="K35" s="5"/>
-      <c r="L35" s="7" t="s">
-        <v>196</v>
-      </c>
+      <c r="L35" s="4"/>
       <c r="M35" s="5" t="s">
         <v>28</v>
       </c>
@@ -3380,9 +3334,7 @@
         <v>181</v>
       </c>
       <c r="K36" s="5"/>
-      <c r="L36" s="7" t="s">
-        <v>196</v>
-      </c>
+      <c r="L36" s="4"/>
       <c r="M36" s="5" t="s">
         <v>28</v>
       </c>
@@ -3438,9 +3390,7 @@
         <v>181</v>
       </c>
       <c r="K37" s="5"/>
-      <c r="L37" s="7" t="s">
-        <v>196</v>
-      </c>
+      <c r="L37" s="4"/>
       <c r="M37" s="5" t="s">
         <v>28</v>
       </c>
@@ -3496,9 +3446,7 @@
         <v>181</v>
       </c>
       <c r="K38" s="5"/>
-      <c r="L38" s="7" t="s">
-        <v>196</v>
-      </c>
+      <c r="L38" s="4"/>
       <c r="M38" s="5" t="s">
         <v>28</v>
       </c>
@@ -3554,9 +3502,7 @@
         <v>181</v>
       </c>
       <c r="K39" s="5"/>
-      <c r="L39" s="7" t="s">
-        <v>196</v>
-      </c>
+      <c r="L39" s="4"/>
       <c r="M39" s="5" t="s">
         <v>28</v>
       </c>
@@ -3583,44 +3529,42 @@
       <c r="V39" s="5"/>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5" t="s">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K40" s="5"/>
-      <c r="L40" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="M40" s="5" t="s">
+      <c r="K40" s="2"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N40" s="5" t="s">
+      <c r="N40" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5" t="s">
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="V40" s="5"/>
+      <c r="V40" s="2"/>
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="5" t="s">
@@ -3646,9 +3590,7 @@
         <v>180</v>
       </c>
       <c r="K41" s="5"/>
-      <c r="L41" s="7" t="s">
-        <v>196</v>
-      </c>
+      <c r="L41" s="4"/>
       <c r="M41" s="5" t="s">
         <v>29</v>
       </c>
@@ -3700,9 +3642,7 @@
         <v>181</v>
       </c>
       <c r="K42" s="5"/>
-      <c r="L42" s="7" t="s">
-        <v>196</v>
-      </c>
+      <c r="L42" s="4"/>
       <c r="M42" s="5" t="s">
         <v>29</v>
       </c>
@@ -3758,9 +3698,7 @@
         <v>181</v>
       </c>
       <c r="K43" s="5"/>
-      <c r="L43" s="7" t="s">
-        <v>196</v>
-      </c>
+      <c r="L43" s="4"/>
       <c r="M43" s="5" t="s">
         <v>29</v>
       </c>
@@ -5391,44 +5329,42 @@
       </c>
     </row>
     <row r="80" spans="1:22">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5" t="s">
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K80" s="5"/>
-      <c r="L80" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="M80" s="5" t="s">
+      <c r="K80" s="2"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N80" s="5" t="s">
+      <c r="N80" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O80" s="5"/>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="5"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-      <c r="U80" s="5" t="s">
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="V80" s="5"/>
+      <c r="V80" s="2"/>
     </row>
     <row r="81" spans="1:22">
       <c r="A81" s="5" t="s">

--- a/data/output/FV2504_FV2410/UTILMD/55007.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55007.xlsx
@@ -1128,7 +1128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1157,11 +1157,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1601,7 +1607,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1965,7 +1971,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2157,7 +2163,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -2359,7 +2365,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -2667,7 +2673,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -2867,7 +2873,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -3241,7 +3247,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3549,7 +3555,7 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -3725,52 +3731,52 @@
       <c r="V43" s="5"/>
     </row>
     <row r="44" spans="1:22">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E44" s="5"/>
+      <c r="E44" s="2"/>
       <c r="F44" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5" t="s">
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K44" s="5"/>
+      <c r="K44" s="2"/>
       <c r="L44" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="M44" s="5" t="s">
+      <c r="M44" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N44" s="5" t="s">
+      <c r="N44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O44" s="5" t="s">
+      <c r="O44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P44" s="5"/>
+      <c r="P44" s="2"/>
       <c r="Q44" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5" t="s">
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="V44" s="5"/>
+      <c r="V44" s="2"/>
     </row>
     <row r="45" spans="1:22">
       <c r="A45" s="5" t="s">
@@ -3955,26 +3961,26 @@
       <c r="B48" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10" t="s">
+      <c r="E48" s="11"/>
+      <c r="F48" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10" t="s">
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="K48" s="10" t="s">
+      <c r="K48" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="L48" s="11" t="s">
+      <c r="L48" s="12" t="s">
         <v>198</v>
       </c>
       <c r="M48" s="5"/>
@@ -3992,33 +3998,33 @@
       <c r="A49" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G49" s="10" t="s">
+      <c r="G49" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10" t="s">
+      <c r="H49" s="11"/>
+      <c r="I49" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J49" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="K49" s="10"/>
-      <c r="L49" s="11" t="s">
+      <c r="J49" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="K49" s="11"/>
+      <c r="L49" s="12" t="s">
         <v>198</v>
       </c>
       <c r="M49" s="5"/>
@@ -4036,31 +4042,31 @@
       <c r="A50" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10" t="s">
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="J50" s="10" t="s">
+      <c r="J50" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="K50" s="10"/>
-      <c r="L50" s="11" t="s">
+      <c r="K50" s="11"/>
+      <c r="L50" s="12" t="s">
         <v>198</v>
       </c>
       <c r="M50" s="5"/>
@@ -4078,33 +4084,33 @@
       <c r="A51" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F51" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="G51" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10" t="s">
+      <c r="H51" s="11"/>
+      <c r="I51" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="J51" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="K51" s="10"/>
-      <c r="L51" s="11" t="s">
+      <c r="J51" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="K51" s="11"/>
+      <c r="L51" s="12" t="s">
         <v>198</v>
       </c>
       <c r="M51" s="5"/>
@@ -4125,26 +4131,26 @@
       <c r="B52" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10" t="s">
+      <c r="E52" s="11"/>
+      <c r="F52" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10" t="s">
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="K52" s="10" t="s">
+      <c r="K52" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="L52" s="11" t="s">
+      <c r="L52" s="12" t="s">
         <v>198</v>
       </c>
       <c r="M52" s="5"/>
@@ -4162,33 +4168,33 @@
       <c r="A53" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="G53" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10" t="s">
+      <c r="H53" s="11"/>
+      <c r="I53" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J53" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="K53" s="10"/>
-      <c r="L53" s="11" t="s">
+      <c r="J53" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="K53" s="11"/>
+      <c r="L53" s="12" t="s">
         <v>198</v>
       </c>
       <c r="M53" s="5"/>
@@ -4206,33 +4212,33 @@
       <c r="A54" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="F54" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="G54" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10" t="s">
+      <c r="H54" s="11"/>
+      <c r="I54" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="J54" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="K54" s="10"/>
-      <c r="L54" s="11" t="s">
+      <c r="J54" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="K54" s="11"/>
+      <c r="L54" s="12" t="s">
         <v>198</v>
       </c>
       <c r="M54" s="5"/>
@@ -4250,31 +4256,31 @@
       <c r="A55" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10" t="s">
+      <c r="F55" s="11"/>
+      <c r="G55" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10" t="s">
+      <c r="H55" s="11"/>
+      <c r="I55" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="J55" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="K55" s="10"/>
-      <c r="L55" s="11" t="s">
+      <c r="J55" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="K55" s="11"/>
+      <c r="L55" s="12" t="s">
         <v>198</v>
       </c>
       <c r="M55" s="5"/>
@@ -4292,31 +4298,31 @@
       <c r="A56" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10" t="s">
+      <c r="F56" s="11"/>
+      <c r="G56" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10" t="s">
+      <c r="H56" s="11"/>
+      <c r="I56" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="J56" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="K56" s="10"/>
-      <c r="L56" s="11" t="s">
+      <c r="J56" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="K56" s="11"/>
+      <c r="L56" s="12" t="s">
         <v>198</v>
       </c>
       <c r="M56" s="5"/>
@@ -4337,26 +4343,26 @@
       <c r="B57" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10" t="s">
+      <c r="E57" s="11"/>
+      <c r="F57" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10" t="s">
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="K57" s="10" t="s">
+      <c r="K57" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="L57" s="11" t="s">
+      <c r="L57" s="12" t="s">
         <v>198</v>
       </c>
       <c r="M57" s="5"/>
@@ -4374,33 +4380,33 @@
       <c r="A58" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="G58" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10" t="s">
+      <c r="H58" s="11"/>
+      <c r="I58" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="J58" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="K58" s="10"/>
-      <c r="L58" s="11" t="s">
+      <c r="J58" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="K58" s="11"/>
+      <c r="L58" s="12" t="s">
         <v>198</v>
       </c>
       <c r="M58" s="5"/>
@@ -4418,31 +4424,31 @@
       <c r="A59" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F59" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10" t="s">
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="J59" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="K59" s="10"/>
-      <c r="L59" s="11" t="s">
+      <c r="J59" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="K59" s="11"/>
+      <c r="L59" s="12" t="s">
         <v>198</v>
       </c>
       <c r="M59" s="5"/>
@@ -4473,7 +4479,7 @@
       <c r="L60" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="M60" s="9" t="s">
+      <c r="M60" s="13" t="s">
         <v>199</v>
       </c>
       <c r="N60" s="9" t="s">
@@ -4837,21 +4843,21 @@
       <c r="V68" s="9"/>
     </row>
     <row r="69" spans="1:22">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
       <c r="J69" s="6" t="s">
         <v>188</v>
       </c>
@@ -4861,18 +4867,18 @@
       <c r="L69" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="M69" s="5" t="s">
+      <c r="M69" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N69" s="5" t="s">
+      <c r="N69" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
       <c r="U69" s="6" t="s">
         <v>228</v>
       </c>
@@ -5065,7 +5071,7 @@
       <c r="L73" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="M73" s="9" t="s">
+      <c r="M73" s="13" t="s">
         <v>200</v>
       </c>
       <c r="N73" s="9" t="s">
@@ -5183,7 +5189,7 @@
       <c r="L76" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="M76" s="9" t="s">
+      <c r="M76" s="13" t="s">
         <v>201</v>
       </c>
       <c r="N76" s="9" t="s">
@@ -5349,7 +5355,7 @@
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -5541,22 +5547,22 @@
       <c r="B84" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10" t="s">
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="K84" s="10" t="s">
+      <c r="K84" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="L84" s="11" t="s">
+      <c r="L84" s="12" t="s">
         <v>198</v>
       </c>
       <c r="M84" s="5"/>
@@ -5574,27 +5580,27 @@
       <c r="A85" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10" t="s">
+      <c r="E85" s="11"/>
+      <c r="F85" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10" t="s">
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="K85" s="10"/>
-      <c r="L85" s="11" t="s">
+      <c r="K85" s="11"/>
+      <c r="L85" s="12" t="s">
         <v>198</v>
       </c>
       <c r="M85" s="5"/>
@@ -5612,33 +5618,33 @@
       <c r="A86" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="D86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E86" s="10" t="s">
+      <c r="E86" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F86" s="10" t="s">
+      <c r="F86" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G86" s="10" t="s">
+      <c r="G86" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10" t="s">
+      <c r="H86" s="11"/>
+      <c r="I86" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J86" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="K86" s="10"/>
-      <c r="L86" s="11" t="s">
+      <c r="J86" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="K86" s="11"/>
+      <c r="L86" s="12" t="s">
         <v>198</v>
       </c>
       <c r="M86" s="5"/>
@@ -5659,24 +5665,24 @@
       <c r="B87" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10" t="s">
+      <c r="E87" s="11"/>
+      <c r="F87" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="10" t="s">
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="K87" s="10"/>
-      <c r="L87" s="11" t="s">
+      <c r="K87" s="11"/>
+      <c r="L87" s="12" t="s">
         <v>198</v>
       </c>
       <c r="M87" s="5"/>
@@ -5694,33 +5700,33 @@
       <c r="A88" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D88" s="10" t="s">
+      <c r="D88" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E88" s="10" t="s">
+      <c r="E88" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F88" s="10" t="s">
+      <c r="F88" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G88" s="10" t="s">
+      <c r="G88" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10" t="s">
+      <c r="H88" s="11"/>
+      <c r="I88" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J88" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="K88" s="10"/>
-      <c r="L88" s="11" t="s">
+      <c r="J88" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="K88" s="11"/>
+      <c r="L88" s="12" t="s">
         <v>198</v>
       </c>
       <c r="M88" s="5"/>
@@ -5738,33 +5744,33 @@
       <c r="A89" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D89" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E89" s="10" t="s">
+      <c r="E89" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F89" s="10" t="s">
+      <c r="F89" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10" t="s">
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="J89" s="10" t="s">
+      <c r="J89" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="K89" s="10" t="s">
+      <c r="K89" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="L89" s="11" t="s">
+      <c r="L89" s="12" t="s">
         <v>198</v>
       </c>
       <c r="M89" s="5"/>
@@ -5785,20 +5791,20 @@
       <c r="B90" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10" t="s">
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="K90" s="10"/>
-      <c r="L90" s="11" t="s">
+      <c r="K90" s="11"/>
+      <c r="L90" s="12" t="s">
         <v>198</v>
       </c>
       <c r="M90" s="5"/>
@@ -5816,27 +5822,27 @@
       <c r="A91" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C91" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10" t="s">
+      <c r="E91" s="11"/>
+      <c r="F91" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10" t="s">
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="K91" s="10"/>
-      <c r="L91" s="11" t="s">
+      <c r="K91" s="11"/>
+      <c r="L91" s="12" t="s">
         <v>198</v>
       </c>
       <c r="M91" s="5"/>
@@ -5854,33 +5860,33 @@
       <c r="A92" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D92" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E92" s="10" t="s">
+      <c r="E92" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F92" s="10" t="s">
+      <c r="F92" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="G92" s="10" t="s">
+      <c r="G92" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10" t="s">
+      <c r="H92" s="11"/>
+      <c r="I92" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J92" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="K92" s="10"/>
-      <c r="L92" s="11" t="s">
+      <c r="J92" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="K92" s="11"/>
+      <c r="L92" s="12" t="s">
         <v>198</v>
       </c>
       <c r="M92" s="5"/>
@@ -5898,33 +5904,33 @@
       <c r="A93" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C93" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="D93" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E93" s="10" t="s">
+      <c r="E93" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F93" s="10" t="s">
+      <c r="F93" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="G93" s="10" t="s">
+      <c r="G93" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10" t="s">
+      <c r="H93" s="11"/>
+      <c r="I93" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="J93" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="K93" s="10"/>
-      <c r="L93" s="11" t="s">
+      <c r="J93" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="K93" s="11"/>
+      <c r="L93" s="12" t="s">
         <v>198</v>
       </c>
       <c r="M93" s="5"/>
@@ -5955,7 +5961,7 @@
       <c r="L94" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="M94" s="9" t="s">
+      <c r="M94" s="13" t="s">
         <v>202</v>
       </c>
       <c r="N94" s="9" t="s">
@@ -6099,48 +6105,48 @@
       <c r="V97" s="9"/>
     </row>
     <row r="98" spans="1:22">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5" t="s">
+      <c r="C98" s="2"/>
+      <c r="D98" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E98" s="5"/>
+      <c r="E98" s="2"/>
       <c r="F98" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5" t="s">
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K98" s="5"/>
+      <c r="K98" s="2"/>
       <c r="L98" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="M98" s="5" t="s">
+      <c r="M98" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N98" s="5"/>
-      <c r="O98" s="5" t="s">
+      <c r="N98" s="2"/>
+      <c r="O98" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P98" s="5"/>
+      <c r="P98" s="2"/>
       <c r="Q98" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="R98" s="5"/>
-      <c r="S98" s="5"/>
-      <c r="T98" s="5"/>
-      <c r="U98" s="5" t="s">
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="V98" s="5"/>
+      <c r="V98" s="2"/>
     </row>
     <row r="99" spans="1:22">
       <c r="A99" s="5" t="s">
